--- a/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
+++ b/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\SVN\Meilensteine\MS 3\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -365,12 +365,14 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -381,8 +383,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,19 +417,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -765,8 +765,8 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A83" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -782,44 +782,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -834,16 +834,16 @@
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="47">
+      <c r="D6" s="29"/>
+      <c r="E6" s="37">
         <v>9</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="8" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -872,7 +872,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -887,20 +887,20 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="35">
         <f>SUM(E9:E18)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="35">
         <f>SUM(F9)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -913,92 +913,92 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1013,21 +1013,21 @@
       <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="33">
         <f>SUM(E19:E28)</f>
         <v>7</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="33">
         <f>SUM(G9+F19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="34">
         <f>SUM($E$6+H9)</f>
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1040,12 +1040,12 @@
       <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1058,82 +1058,82 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1148,21 +1148,21 @@
       <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="38">
         <f>SUM(E29:E38)</f>
         <v>9</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="38">
         <f>SUM(G19+F29)</f>
         <v>18</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="39">
         <f>SUM($E$6+H19)</f>
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
@@ -1175,12 +1175,12 @@
       <c r="E30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
@@ -1193,12 +1193,12 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1211,12 +1211,12 @@
       <c r="E32" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
@@ -1229,62 +1229,62 @@
       <c r="E33" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -1299,21 +1299,21 @@
       <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="33">
         <f>SUM(E39:E48)</f>
         <v>14</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="33">
         <f>SUM(G29+F39)</f>
         <v>32</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="34">
         <f>SUM($E$6+H29)</f>
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
@@ -1326,12 +1326,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="11" t="s">
         <v>20</v>
       </c>
@@ -1344,12 +1344,12 @@
       <c r="E41" s="13">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
@@ -1362,12 +1362,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -1380,12 +1380,12 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -1398,52 +1398,52 @@
       <c r="E44" s="13">
         <v>2</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -1458,21 +1458,21 @@
       <c r="E49" s="16">
         <v>0.5</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="38">
         <f>SUM(E49:E58)</f>
         <v>12.5</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="38">
         <f>SUM(G39+F49)</f>
         <v>44.5</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="39">
         <f>SUM($E$6+H39)</f>
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1485,12 +1485,12 @@
       <c r="E50" s="16">
         <v>1</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
@@ -1503,12 +1503,12 @@
       <c r="E51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
@@ -1521,12 +1521,12 @@
       <c r="E52" s="16">
         <v>1</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="14" t="s">
         <v>20</v>
       </c>
@@ -1539,12 +1539,12 @@
       <c r="E53" s="16">
         <v>3</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
@@ -1557,12 +1557,12 @@
       <c r="E54" s="16">
         <v>4</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="14" t="s">
         <v>15</v>
       </c>
@@ -1575,42 +1575,42 @@
       <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -1625,21 +1625,21 @@
       <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="33">
         <f>SUM(E59:E68)</f>
         <v>10</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="33">
         <f>SUM(G49+F59)</f>
         <v>54.5</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="34">
         <f>SUM($E$6+H49)</f>
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
@@ -1652,12 +1652,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="11" t="s">
         <v>36</v>
       </c>
@@ -1670,12 +1670,12 @@
       <c r="E61" s="13">
         <v>3</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1688,12 +1688,12 @@
       <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="11" t="s">
         <v>25</v>
       </c>
@@ -1706,83 +1706,83 @@
       <c r="E63" s="13">
         <v>2</v>
       </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="11"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="11"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="11"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="35">
+      <c r="F69" s="38">
         <f>SUM(E69:E78)</f>
         <v>9</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="38">
         <f>SUM(G59+F69)</f>
         <v>63.5</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="39">
         <f>SUM($E$6+H59)</f>
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="14" t="s">
         <v>26</v>
       </c>
@@ -1795,12 +1795,12 @@
       <c r="E70" s="16">
         <v>3</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="14" t="s">
         <v>20</v>
       </c>
@@ -1813,12 +1813,12 @@
       <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="14" t="s">
         <v>22</v>
       </c>
@@ -1831,72 +1831,72 @@
       <c r="E72" s="16">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="14"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="14"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -1911,21 +1911,21 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="33">
         <f>SUM(E79:E88)</f>
         <v>8</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="33">
         <f>SUM(G69+F79)</f>
         <v>71.5</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="34">
         <f>SUM($E$6+H69)</f>
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="11" t="s">
         <v>19</v>
       </c>
@@ -1938,12 +1938,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="11" t="s">
         <v>20</v>
       </c>
@@ -1956,12 +1956,12 @@
       <c r="E81" s="13">
         <v>3</v>
       </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="11" t="s">
         <v>25</v>
       </c>
@@ -1974,72 +1974,72 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="11"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="11"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="11"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="11"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="11"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="11"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -2054,21 +2054,21 @@
       <c r="E89" s="16">
         <v>4</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="38">
         <f>SUM(E89:E98)</f>
         <v>9.5</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="38">
         <f>SUM(G79+F89)</f>
         <v>81</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="39">
         <f>SUM($E$6+H79)</f>
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="8" t="s">
         <v>19</v>
       </c>
@@ -2081,12 +2081,12 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="14" t="s">
         <v>19</v>
       </c>
@@ -2099,12 +2099,12 @@
       <c r="E91" s="16">
         <v>3</v>
       </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="14" t="s">
         <v>25</v>
       </c>
@@ -2117,72 +2117,72 @@
       <c r="E92" s="16">
         <v>2</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="8"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="8"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -2197,21 +2197,21 @@
       <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="33">
         <f>SUM(E99:E108)</f>
         <v>12</v>
       </c>
-      <c r="G99" s="32">
+      <c r="G99" s="33">
         <f>SUM(G89+F99)</f>
         <v>93</v>
       </c>
-      <c r="H99" s="33">
+      <c r="H99" s="34">
         <f>SUM($E$6+H89)</f>
         <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="11" t="s">
         <v>19</v>
       </c>
@@ -2224,12 +2224,12 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="11" t="s">
         <v>19</v>
       </c>
@@ -2242,12 +2242,12 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2260,12 +2260,12 @@
       <c r="E102" s="13">
         <v>3</v>
       </c>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
@@ -2278,62 +2278,62 @@
       <c r="E103" s="13">
         <v>5</v>
       </c>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="31"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="11"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="11"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="11"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
       <c r="D107" s="11"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="11"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -2348,21 +2348,21 @@
       <c r="E109" s="16">
         <v>2</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="38">
         <f>SUM(E109:E118)</f>
-        <v>5</v>
-      </c>
-      <c r="G109" s="35">
+        <v>11</v>
+      </c>
+      <c r="G109" s="38">
         <f>SUM(G99+F109)</f>
-        <v>98</v>
-      </c>
-      <c r="H109" s="36">
+        <v>104</v>
+      </c>
+      <c r="H109" s="39">
         <f>SUM($E$6+H99)</f>
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2375,886 +2375,902 @@
       <c r="E110" s="16">
         <v>3</v>
       </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="36"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="39"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="34"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="36"/>
+      <c r="A111" s="31"/>
+      <c r="B111" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="15">
+        <v>42874</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="16">
+        <v>2</v>
+      </c>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="36"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="15">
+        <v>42875</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="16">
+        <v>4</v>
+      </c>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
       <c r="D113" s="14"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="36"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="34"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="14"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="36"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="34"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="14"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="36"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="39"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="34"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="36"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="34"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="14"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="36"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="39"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="12"/>
       <c r="D119" s="11"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="32">
+      <c r="F119" s="33">
         <f>SUM(E119:E128)</f>
         <v>0</v>
       </c>
-      <c r="G119" s="32">
+      <c r="G119" s="33">
         <f>SUM(G109+F119)</f>
-        <v>98</v>
-      </c>
-      <c r="H119" s="33">
+        <v>104</v>
+      </c>
+      <c r="H119" s="34">
         <f>SUM($E$6+H109)</f>
         <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="11"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="31"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
       <c r="D121" s="11"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="31"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="11"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="11"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="31"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="11"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="31"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
       <c r="D125" s="11"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="31"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="11"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="11"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="11"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="14"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="35">
+      <c r="F129" s="38">
         <f>SUM(E129:E138)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="35">
+      <c r="G129" s="38">
         <f>SUM(G119+F129)</f>
-        <v>98</v>
-      </c>
-      <c r="H129" s="36">
+        <v>104</v>
+      </c>
+      <c r="H129" s="39">
         <f>SUM($E$6+H119)</f>
         <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="14"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="36"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="39"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
       <c r="D131" s="14"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="36"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="39"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
       <c r="D132" s="14"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="36"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="39"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="14"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="36"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="34"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
       <c r="D134" s="14"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="36"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="39"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="34"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="14"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="36"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="34"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="14"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="36"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
       <c r="D137" s="14"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="36"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="39"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="34"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
       <c r="D138" s="14"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="36"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="39"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="11"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="32">
+      <c r="F139" s="33">
         <f>SUM(E139:E148)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="32">
+      <c r="G139" s="33">
         <f>SUM(G129+F139)</f>
-        <v>98</v>
-      </c>
-      <c r="H139" s="33">
+        <v>104</v>
+      </c>
+      <c r="H139" s="34">
         <f>SUM($E$6+H129)</f>
         <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="11"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="11"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="11"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="34"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="31"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="11"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="34"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="31"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="11"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="31"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="11"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="31"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="11"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="11"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="11"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="15"/>
       <c r="D149" s="14"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="35">
+      <c r="F149" s="38">
         <f>SUM(E149:E158)</f>
         <v>0</v>
       </c>
-      <c r="G149" s="35">
+      <c r="G149" s="38">
         <f>SUM(G139+F149)</f>
-        <v>98</v>
-      </c>
-      <c r="H149" s="36">
+        <v>104</v>
+      </c>
+      <c r="H149" s="39">
         <f>SUM($E$6+H139)</f>
         <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="14"/>
       <c r="C150" s="15"/>
       <c r="D150" s="14"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="36"/>
+      <c r="F150" s="38"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="39"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="14"/>
       <c r="C151" s="15"/>
       <c r="D151" s="14"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="36"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="39"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="14"/>
       <c r="C152" s="15"/>
       <c r="D152" s="14"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="36"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="34"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="14"/>
       <c r="C153" s="15"/>
       <c r="D153" s="14"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="36"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="39"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="34"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
       <c r="D154" s="14"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="36"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="39"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="14"/>
       <c r="C155" s="15"/>
       <c r="D155" s="14"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="36"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="39"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="34"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="14"/>
       <c r="C156" s="15"/>
       <c r="D156" s="14"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="36"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="14"/>
       <c r="C157" s="15"/>
       <c r="D157" s="14"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="36"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="39"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="34"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="14"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="36"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="39"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="11"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="32">
+      <c r="F159" s="33">
         <f>SUM(E159:E168)</f>
         <v>0</v>
       </c>
-      <c r="G159" s="32">
+      <c r="G159" s="33">
         <f>SUM(G149+F159)</f>
-        <v>98</v>
-      </c>
-      <c r="H159" s="33">
+        <v>104</v>
+      </c>
+      <c r="H159" s="34">
         <f>SUM($E$6+H149)</f>
         <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="31"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="11"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="34"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="31"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
       <c r="D161" s="11"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="31"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="11"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="31"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
       <c r="D163" s="11"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="31"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="11"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="31"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
       <c r="D165" s="11"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="31"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="11"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="31"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
       <c r="D167" s="11"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="31"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="11"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="34"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="34" t="s">
+      <c r="A169" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="35">
+      <c r="F169" s="38">
         <f>SUM(E169:E178)</f>
         <v>0</v>
       </c>
-      <c r="G169" s="35">
+      <c r="G169" s="38">
         <f>SUM(G159+F169)</f>
-        <v>98</v>
-      </c>
-      <c r="H169" s="36">
+        <v>104</v>
+      </c>
+      <c r="H169" s="39">
         <f>SUM($E$6+H159)</f>
         <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="34"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="36"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="39"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="34"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="14"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="36"/>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="39"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="34"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="14"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="36"/>
+      <c r="F172" s="38"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="34"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="14"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="36"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="39"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="34"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="14"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="36"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="39"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="34"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="14"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="36"/>
+      <c r="F175" s="38"/>
+      <c r="G175" s="38"/>
+      <c r="H175" s="39"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="34"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="14"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="36"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="39"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="34"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="14"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="36"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="39"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="34"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="14"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="36"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="39"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="37" t="s">
+      <c r="A179" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="39">
+      <c r="F179" s="42">
         <f>SUM(E179:E188)</f>
         <v>0</v>
       </c>
-      <c r="G179" s="39">
+      <c r="G179" s="42">
         <f>SUM(G169+F179)</f>
-        <v>98</v>
-      </c>
-      <c r="H179" s="41">
+        <v>104</v>
+      </c>
+      <c r="H179" s="44">
         <f>SUM($E$6+H169)</f>
         <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
+      <c r="A180" s="40"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="41"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="44"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
+      <c r="A181" s="40"/>
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="41"/>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="44"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="37"/>
+      <c r="A182" s="40"/>
       <c r="B182" s="17"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17"/>
       <c r="E182" s="19"/>
-      <c r="F182" s="39"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="41"/>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="44"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="37"/>
+      <c r="A183" s="40"/>
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="17"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="41"/>
+      <c r="F183" s="42"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="44"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
+      <c r="A184" s="40"/>
       <c r="B184" s="17"/>
       <c r="C184" s="18"/>
       <c r="D184" s="17"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="39"/>
-      <c r="G184" s="39"/>
-      <c r="H184" s="41"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="44"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
+      <c r="A185" s="40"/>
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="17"/>
       <c r="E185" s="19"/>
-      <c r="F185" s="39"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="41"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="44"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
+      <c r="A186" s="40"/>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
       <c r="D186" s="17"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="41"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="44"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="17"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="39"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="41"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="44"/>
     </row>
     <row r="188" spans="1:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="38"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="20"/>
       <c r="E188" s="22"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="40"/>
-      <c r="H188" s="42"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="45"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
       <c r="F190" s="3"/>
       <c r="G190" s="28">
         <f>SUM(G179)</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3">
@@ -3263,14 +3279,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="43"/>
-      <c r="C192" s="43"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
       <c r="F192" s="27">
         <f>SUM(G190-H191)</f>
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
@@ -3278,6 +3294,72 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="82">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="F159:F168"/>
+    <mergeCell ref="G159:G168"/>
+    <mergeCell ref="H159:H168"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="F149:F158"/>
+    <mergeCell ref="G149:G158"/>
+    <mergeCell ref="H149:H158"/>
+    <mergeCell ref="A129:A138"/>
+    <mergeCell ref="F129:F138"/>
+    <mergeCell ref="G129:G138"/>
+    <mergeCell ref="H129:H138"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="F179:F188"/>
+    <mergeCell ref="G179:G188"/>
+    <mergeCell ref="H179:H188"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="F169:F178"/>
+    <mergeCell ref="G169:G178"/>
+    <mergeCell ref="H169:H178"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="F139:F148"/>
+    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="H139:H148"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="G109:G118"/>
+    <mergeCell ref="H109:H118"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="F119:F128"/>
+    <mergeCell ref="G119:G128"/>
+    <mergeCell ref="H119:H128"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="F89:F98"/>
+    <mergeCell ref="G89:G98"/>
+    <mergeCell ref="H89:H98"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="F99:F108"/>
+    <mergeCell ref="G99:G108"/>
+    <mergeCell ref="H99:H108"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="G69:G78"/>
+    <mergeCell ref="H69:H78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F79:F88"/>
+    <mergeCell ref="G79:G88"/>
+    <mergeCell ref="H79:H88"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="F49:F58"/>
+    <mergeCell ref="G49:G58"/>
+    <mergeCell ref="H49:H58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F59:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="H59:H68"/>
+    <mergeCell ref="H39:H48"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="G29:G38"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="F29:F38"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A190:C190"/>
@@ -3294,72 +3376,6 @@
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="F39:F48"/>
     <mergeCell ref="G39:G48"/>
-    <mergeCell ref="H39:H48"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="G29:G38"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="F49:F58"/>
-    <mergeCell ref="G49:G58"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F59:F68"/>
-    <mergeCell ref="G59:G68"/>
-    <mergeCell ref="H59:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="F69:F78"/>
-    <mergeCell ref="G69:G78"/>
-    <mergeCell ref="H69:H78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F79:F88"/>
-    <mergeCell ref="G79:G88"/>
-    <mergeCell ref="H79:H88"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="F89:F98"/>
-    <mergeCell ref="G89:G98"/>
-    <mergeCell ref="H89:H98"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="F99:F108"/>
-    <mergeCell ref="G99:G108"/>
-    <mergeCell ref="H99:H108"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="F139:F148"/>
-    <mergeCell ref="G139:G148"/>
-    <mergeCell ref="H139:H148"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="G109:G118"/>
-    <mergeCell ref="H109:H118"/>
-    <mergeCell ref="A119:A128"/>
-    <mergeCell ref="F119:F128"/>
-    <mergeCell ref="G119:G128"/>
-    <mergeCell ref="H119:H128"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="F179:F188"/>
-    <mergeCell ref="G179:G188"/>
-    <mergeCell ref="H179:H188"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="F169:F178"/>
-    <mergeCell ref="G169:G178"/>
-    <mergeCell ref="H169:H178"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A159:A168"/>
-    <mergeCell ref="F159:F168"/>
-    <mergeCell ref="G159:G168"/>
-    <mergeCell ref="H159:H168"/>
-    <mergeCell ref="A149:A158"/>
-    <mergeCell ref="F149:F158"/>
-    <mergeCell ref="G149:G158"/>
-    <mergeCell ref="H149:H158"/>
-    <mergeCell ref="A129:A138"/>
-    <mergeCell ref="F129:F138"/>
-    <mergeCell ref="G129:G138"/>
-    <mergeCell ref="H129:H138"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
+++ b/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Einarbeit Multiplayer</t>
+  </si>
+  <si>
+    <t>Profil erstellt/Datenbank</t>
   </si>
 </sst>
 </file>
@@ -365,14 +368,12 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -383,15 +384,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,10 +411,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -765,8 +768,8 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <pane ySplit="8" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -782,44 +785,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -834,16 +837,16 @@
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="37">
+      <c r="D6" s="43"/>
+      <c r="E6" s="47">
         <v>9</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="8" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -872,7 +875,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -887,20 +890,20 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="45">
         <f>SUM(E9:E18)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="45">
         <f>SUM(F9)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -913,92 +916,92 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1013,21 +1016,21 @@
       <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="32">
         <f>SUM(E19:E28)</f>
         <v>7</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f>SUM(G9+F19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <f>SUM($E$6+H9)</f>
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1040,12 +1043,12 @@
       <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1058,82 +1061,82 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1148,21 +1151,21 @@
       <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="35">
         <f>SUM(E29:E38)</f>
         <v>9</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="35">
         <f>SUM(G19+F29)</f>
         <v>18</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="36">
         <f>SUM($E$6+H19)</f>
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
@@ -1175,12 +1178,12 @@
       <c r="E30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
@@ -1193,12 +1196,12 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1211,12 +1214,12 @@
       <c r="E32" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
@@ -1229,62 +1232,62 @@
       <c r="E33" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -1299,21 +1302,21 @@
       <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="32">
         <f>SUM(E39:E48)</f>
         <v>14</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <f>SUM(G29+F39)</f>
         <v>32</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <f>SUM($E$6+H29)</f>
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
@@ -1326,12 +1329,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="11" t="s">
         <v>20</v>
       </c>
@@ -1344,12 +1347,12 @@
       <c r="E41" s="13">
         <v>5</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
@@ -1362,12 +1365,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -1380,12 +1383,12 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -1398,52 +1401,52 @@
       <c r="E44" s="13">
         <v>2</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -1458,21 +1461,21 @@
       <c r="E49" s="16">
         <v>0.5</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="35">
         <f>SUM(E49:E58)</f>
         <v>12.5</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="35">
         <f>SUM(G39+F49)</f>
         <v>44.5</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="36">
         <f>SUM($E$6+H39)</f>
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1485,12 +1488,12 @@
       <c r="E50" s="16">
         <v>1</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
@@ -1503,12 +1506,12 @@
       <c r="E51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
@@ -1521,12 +1524,12 @@
       <c r="E52" s="16">
         <v>1</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="14" t="s">
         <v>20</v>
       </c>
@@ -1539,12 +1542,12 @@
       <c r="E53" s="16">
         <v>3</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
@@ -1557,12 +1560,12 @@
       <c r="E54" s="16">
         <v>4</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="39"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="14" t="s">
         <v>15</v>
       </c>
@@ -1575,42 +1578,42 @@
       <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="39"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -1625,21 +1628,21 @@
       <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="32">
         <f>SUM(E59:E68)</f>
         <v>10</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="32">
         <f>SUM(G49+F59)</f>
         <v>54.5</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="33">
         <f>SUM($E$6+H49)</f>
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
@@ -1652,12 +1655,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="11" t="s">
         <v>36</v>
       </c>
@@ -1670,12 +1673,12 @@
       <c r="E61" s="13">
         <v>3</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1688,12 +1691,12 @@
       <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
         <v>25</v>
       </c>
@@ -1706,83 +1709,83 @@
       <c r="E63" s="13">
         <v>2</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="11"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="34"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="11"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="11"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="34"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="33"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="38">
+      <c r="F69" s="35">
         <f>SUM(E69:E78)</f>
         <v>9</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="35">
         <f>SUM(G59+F69)</f>
         <v>63.5</v>
       </c>
-      <c r="H69" s="39">
+      <c r="H69" s="36">
         <f>SUM($E$6+H59)</f>
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="14" t="s">
         <v>26</v>
       </c>
@@ -1795,12 +1798,12 @@
       <c r="E70" s="16">
         <v>3</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="39"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="14" t="s">
         <v>20</v>
       </c>
@@ -1813,12 +1816,12 @@
       <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="14" t="s">
         <v>22</v>
       </c>
@@ -1831,72 +1834,72 @@
       <c r="E72" s="16">
         <v>5</v>
       </c>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="39"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="14"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="31"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="39"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="14"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -1911,21 +1914,21 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="32">
         <f>SUM(E79:E88)</f>
         <v>8</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="32">
         <f>SUM(G69+F79)</f>
         <v>71.5</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H79" s="33">
         <f>SUM($E$6+H69)</f>
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="11" t="s">
         <v>19</v>
       </c>
@@ -1938,12 +1941,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="33"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
         <v>20</v>
       </c>
@@ -1956,12 +1959,12 @@
       <c r="E81" s="13">
         <v>3</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="11" t="s">
         <v>25</v>
       </c>
@@ -1974,72 +1977,72 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="33"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="11"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="34"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="33"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="11"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="11"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="34"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="33"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="11"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="33"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="11"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="33"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="11"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="33"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -2054,21 +2057,21 @@
       <c r="E89" s="16">
         <v>4</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="35">
         <f>SUM(E89:E98)</f>
         <v>9.5</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="35">
         <f>SUM(G79+F89)</f>
         <v>81</v>
       </c>
-      <c r="H89" s="39">
+      <c r="H89" s="36">
         <f>SUM($E$6+H79)</f>
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="8" t="s">
         <v>19</v>
       </c>
@@ -2081,12 +2084,12 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="14" t="s">
         <v>19</v>
       </c>
@@ -2099,12 +2102,12 @@
       <c r="E91" s="16">
         <v>3</v>
       </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="39"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="14" t="s">
         <v>25</v>
       </c>
@@ -2117,72 +2120,72 @@
       <c r="E92" s="16">
         <v>2</v>
       </c>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="39"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="39"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="39"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="8"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="8"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="39"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="36"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="39"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="39"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -2197,21 +2200,21 @@
       <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="33">
+      <c r="F99" s="32">
         <f>SUM(E99:E108)</f>
         <v>12</v>
       </c>
-      <c r="G99" s="33">
+      <c r="G99" s="32">
         <f>SUM(G89+F99)</f>
         <v>93</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="33">
         <f>SUM($E$6+H89)</f>
         <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="11" t="s">
         <v>19</v>
       </c>
@@ -2224,12 +2227,12 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="34"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="33"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="11" t="s">
         <v>19</v>
       </c>
@@ -2242,12 +2245,12 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="34"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="33"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2260,12 +2263,12 @@
       <c r="E102" s="13">
         <v>3</v>
       </c>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="34"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
@@ -2278,62 +2281,62 @@
       <c r="E103" s="13">
         <v>5</v>
       </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="34"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="33"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="11"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="11"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="11"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="34"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
       <c r="D107" s="11"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="34"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="33"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="11"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="34"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="33"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -2348,21 +2351,21 @@
       <c r="E109" s="16">
         <v>2</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="35">
         <f>SUM(E109:E118)</f>
-        <v>11</v>
-      </c>
-      <c r="G109" s="38">
+        <v>15</v>
+      </c>
+      <c r="G109" s="35">
         <f>SUM(G99+F109)</f>
-        <v>104</v>
-      </c>
-      <c r="H109" s="39">
+        <v>108</v>
+      </c>
+      <c r="H109" s="36">
         <f>SUM($E$6+H99)</f>
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2375,12 +2378,12 @@
       <c r="E110" s="16">
         <v>3</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="39"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="36"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="14" t="s">
         <v>20</v>
       </c>
@@ -2393,12 +2396,12 @@
       <c r="E111" s="16">
         <v>2</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="36"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="14" t="s">
         <v>22</v>
       </c>
@@ -2411,866 +2414,874 @@
       <c r="E112" s="16">
         <v>4</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="39"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="36"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="39"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="15">
+        <v>42511</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="16">
+        <v>4</v>
+      </c>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="36"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="14"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="39"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="36"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="14"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="39"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="36"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="39"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="36"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="39"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="36"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="14"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="39"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="36"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="12"/>
       <c r="D119" s="11"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="33">
+      <c r="F119" s="32">
         <f>SUM(E119:E128)</f>
         <v>0</v>
       </c>
-      <c r="G119" s="33">
+      <c r="G119" s="32">
         <f>SUM(G109+F119)</f>
-        <v>104</v>
-      </c>
-      <c r="H119" s="34">
+        <v>108</v>
+      </c>
+      <c r="H119" s="33">
         <f>SUM($E$6+H109)</f>
         <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="11"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="34"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="33"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
       <c r="D121" s="11"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="34"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="33"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="11"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="34"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="33"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="11"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="34"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="33"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="11"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="34"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="33"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
       <c r="D125" s="11"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="34"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="33"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="32"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="11"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="34"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="33"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="32"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="11"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="34"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="33"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="32"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="11"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="34"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="33"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="14"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="38">
+      <c r="F129" s="35">
         <f>SUM(E129:E138)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="38">
+      <c r="G129" s="35">
         <f>SUM(G119+F129)</f>
-        <v>104</v>
-      </c>
-      <c r="H129" s="39">
+        <v>108</v>
+      </c>
+      <c r="H129" s="36">
         <f>SUM($E$6+H119)</f>
         <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="14"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="39"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="36"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
       <c r="D131" s="14"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="39"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="36"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
       <c r="D132" s="14"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="39"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="36"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="14"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="39"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="36"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
       <c r="D134" s="14"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="39"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="36"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="14"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="39"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="36"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="14"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="36"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
       <c r="D137" s="14"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="39"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="36"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="31"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
       <c r="D138" s="14"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="39"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="36"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="11"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="33">
+      <c r="F139" s="32">
         <f>SUM(E139:E148)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="33">
+      <c r="G139" s="32">
         <f>SUM(G129+F139)</f>
-        <v>104</v>
-      </c>
-      <c r="H139" s="34">
+        <v>108</v>
+      </c>
+      <c r="H139" s="33">
         <f>SUM($E$6+H129)</f>
         <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="11"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="34"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="33"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="11"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="34"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="11"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="34"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="33"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="11"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="34"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="33"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="32"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="11"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="34"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="33"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="32"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="11"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="34"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="33"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="32"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="11"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="34"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="33"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="11"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="34"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="33"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="11"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="33"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="15"/>
       <c r="D149" s="14"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="38">
+      <c r="F149" s="35">
         <f>SUM(E149:E158)</f>
         <v>0</v>
       </c>
-      <c r="G149" s="38">
+      <c r="G149" s="35">
         <f>SUM(G139+F149)</f>
-        <v>104</v>
-      </c>
-      <c r="H149" s="39">
+        <v>108</v>
+      </c>
+      <c r="H149" s="36">
         <f>SUM($E$6+H139)</f>
         <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="31"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="14"/>
       <c r="C150" s="15"/>
       <c r="D150" s="14"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="39"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="36"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="14"/>
       <c r="C151" s="15"/>
       <c r="D151" s="14"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="39"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="36"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="31"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="14"/>
       <c r="C152" s="15"/>
       <c r="D152" s="14"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="39"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="36"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="31"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="14"/>
       <c r="C153" s="15"/>
       <c r="D153" s="14"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="39"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="36"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="31"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
       <c r="D154" s="14"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="39"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="36"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="31"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="14"/>
       <c r="C155" s="15"/>
       <c r="D155" s="14"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="39"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="36"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="31"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="14"/>
       <c r="C156" s="15"/>
       <c r="D156" s="14"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="39"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="36"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="31"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="14"/>
       <c r="C157" s="15"/>
       <c r="D157" s="14"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="39"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="36"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="31"/>
+      <c r="A158" s="34"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="14"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="39"/>
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="36"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="11"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="33">
+      <c r="F159" s="32">
         <f>SUM(E159:E168)</f>
         <v>0</v>
       </c>
-      <c r="G159" s="33">
+      <c r="G159" s="32">
         <f>SUM(G149+F159)</f>
-        <v>104</v>
-      </c>
-      <c r="H159" s="34">
+        <v>108</v>
+      </c>
+      <c r="H159" s="33">
         <f>SUM($E$6+H149)</f>
         <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="32"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="11"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="34"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="33"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="32"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
       <c r="D161" s="11"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="34"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="33"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="11"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="34"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="33"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
       <c r="D163" s="11"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="34"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="33"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="11"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="34"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="33"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
       <c r="D165" s="11"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="34"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="33"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="32"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="11"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="34"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="33"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
       <c r="D167" s="11"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="34"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="33"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="32"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="11"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="34"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="33"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="38">
+      <c r="F169" s="35">
         <f>SUM(E169:E178)</f>
         <v>0</v>
       </c>
-      <c r="G169" s="38">
+      <c r="G169" s="35">
         <f>SUM(G159+F169)</f>
-        <v>104</v>
-      </c>
-      <c r="H169" s="39">
+        <v>108</v>
+      </c>
+      <c r="H169" s="36">
         <f>SUM($E$6+H159)</f>
         <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="31"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="39"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="36"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="31"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="14"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="39"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="36"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="31"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="14"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="39"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="36"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="31"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="14"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="39"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="36"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="31"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="14"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="39"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="36"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="31"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="14"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="39"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="36"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="31"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="14"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="39"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="36"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="31"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="14"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="39"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="36"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="31"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="14"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="38"/>
-      <c r="H178" s="39"/>
+      <c r="F178" s="35"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="36"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="40" t="s">
+      <c r="A179" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="42">
+      <c r="F179" s="39">
         <f>SUM(E179:E188)</f>
         <v>0</v>
       </c>
-      <c r="G179" s="42">
+      <c r="G179" s="39">
         <f>SUM(G169+F179)</f>
-        <v>104</v>
-      </c>
-      <c r="H179" s="44">
+        <v>108</v>
+      </c>
+      <c r="H179" s="41">
         <f>SUM($E$6+H169)</f>
         <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
+      <c r="A180" s="37"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
-      <c r="H180" s="44"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="41"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="40"/>
+      <c r="A181" s="37"/>
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
-      <c r="H181" s="44"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="41"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
+      <c r="A182" s="37"/>
       <c r="B182" s="17"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17"/>
       <c r="E182" s="19"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="44"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="41"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="40"/>
+      <c r="A183" s="37"/>
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="17"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
-      <c r="H183" s="44"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="41"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="40"/>
+      <c r="A184" s="37"/>
       <c r="B184" s="17"/>
       <c r="C184" s="18"/>
       <c r="D184" s="17"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
-      <c r="H184" s="44"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="41"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="40"/>
+      <c r="A185" s="37"/>
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="17"/>
       <c r="E185" s="19"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="42"/>
-      <c r="H185" s="44"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="41"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="40"/>
+      <c r="A186" s="37"/>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
       <c r="D186" s="17"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="42"/>
-      <c r="G186" s="42"/>
-      <c r="H186" s="44"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="41"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
+      <c r="A187" s="37"/>
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="17"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="42"/>
-      <c r="G187" s="42"/>
-      <c r="H187" s="44"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="41"/>
     </row>
     <row r="188" spans="1:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="41"/>
+      <c r="A188" s="38"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="20"/>
       <c r="E188" s="22"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-      <c r="H188" s="45"/>
+      <c r="F188" s="40"/>
+      <c r="G188" s="40"/>
+      <c r="H188" s="42"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="29" t="s">
+      <c r="A190" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
       <c r="F190" s="3"/>
       <c r="G190" s="28">
         <f>SUM(G179)</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="29" t="s">
+      <c r="A191" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3">
@@ -3279,14 +3290,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="29" t="s">
+      <c r="A192" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
       <c r="F192" s="27">
         <f>SUM(G190-H191)</f>
-        <v>-49</v>
+        <v>-45</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
@@ -3294,6 +3305,72 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="82">
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="H19:H28"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="F39:F48"/>
+    <mergeCell ref="G39:G48"/>
+    <mergeCell ref="H39:H48"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="G29:G38"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="F49:F58"/>
+    <mergeCell ref="G49:G58"/>
+    <mergeCell ref="H49:H58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F59:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="H59:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="G69:G78"/>
+    <mergeCell ref="H69:H78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F79:F88"/>
+    <mergeCell ref="G79:G88"/>
+    <mergeCell ref="H79:H88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="F89:F98"/>
+    <mergeCell ref="G89:G98"/>
+    <mergeCell ref="H89:H98"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="F99:F108"/>
+    <mergeCell ref="G99:G108"/>
+    <mergeCell ref="H99:H108"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="F139:F148"/>
+    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="H139:H148"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="G109:G118"/>
+    <mergeCell ref="H109:H118"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="F119:F128"/>
+    <mergeCell ref="G119:G128"/>
+    <mergeCell ref="H119:H128"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="F179:F188"/>
+    <mergeCell ref="G179:G188"/>
+    <mergeCell ref="H179:H188"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="F169:F178"/>
+    <mergeCell ref="G169:G178"/>
+    <mergeCell ref="H169:H178"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:H3"/>
@@ -3310,72 +3387,6 @@
     <mergeCell ref="F129:F138"/>
     <mergeCell ref="G129:G138"/>
     <mergeCell ref="H129:H138"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="F179:F188"/>
-    <mergeCell ref="G179:G188"/>
-    <mergeCell ref="H179:H188"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="F169:F178"/>
-    <mergeCell ref="G169:G178"/>
-    <mergeCell ref="H169:H178"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="F139:F148"/>
-    <mergeCell ref="G139:G148"/>
-    <mergeCell ref="H139:H148"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="G109:G118"/>
-    <mergeCell ref="H109:H118"/>
-    <mergeCell ref="A119:A128"/>
-    <mergeCell ref="F119:F128"/>
-    <mergeCell ref="G119:G128"/>
-    <mergeCell ref="H119:H128"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="F89:F98"/>
-    <mergeCell ref="G89:G98"/>
-    <mergeCell ref="H89:H98"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="F99:F108"/>
-    <mergeCell ref="G99:G108"/>
-    <mergeCell ref="H99:H108"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="F69:F78"/>
-    <mergeCell ref="G69:G78"/>
-    <mergeCell ref="H69:H78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F79:F88"/>
-    <mergeCell ref="G79:G88"/>
-    <mergeCell ref="H79:H88"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="F49:F58"/>
-    <mergeCell ref="G49:G58"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F59:F68"/>
-    <mergeCell ref="G59:G68"/>
-    <mergeCell ref="H59:H68"/>
-    <mergeCell ref="H39:H48"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="G29:G38"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="H19:H28"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="H9:H18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="F39:F48"/>
-    <mergeCell ref="G39:G48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
+++ b/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Profil erstellt/Datenbank</t>
+  </si>
+  <si>
+    <t>Datenbanken/GUI</t>
   </si>
 </sst>
 </file>
@@ -368,12 +371,14 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -384,8 +389,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,19 +423,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -768,8 +771,8 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="8" topLeftCell="A153" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -785,44 +788,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -837,16 +840,16 @@
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="47">
+      <c r="D6" s="29"/>
+      <c r="E6" s="37">
         <v>9</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="8" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -875,7 +878,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -890,20 +893,20 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="35">
         <f>SUM(E9:E18)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="35">
         <f>SUM(F9)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,92 +919,92 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1016,21 +1019,21 @@
       <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="33">
         <f>SUM(E19:E28)</f>
         <v>7</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="33">
         <f>SUM(G9+F19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="34">
         <f>SUM($E$6+H9)</f>
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1043,12 +1046,12 @@
       <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1061,82 +1064,82 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1151,21 +1154,21 @@
       <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="38">
         <f>SUM(E29:E38)</f>
         <v>9</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="38">
         <f>SUM(G19+F29)</f>
         <v>18</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="39">
         <f>SUM($E$6+H19)</f>
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
@@ -1178,12 +1181,12 @@
       <c r="E30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
@@ -1196,12 +1199,12 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1214,12 +1217,12 @@
       <c r="E32" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
@@ -1232,62 +1235,62 @@
       <c r="E33" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -1302,21 +1305,21 @@
       <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="33">
         <f>SUM(E39:E48)</f>
         <v>14</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="33">
         <f>SUM(G29+F39)</f>
         <v>32</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="34">
         <f>SUM($E$6+H29)</f>
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
@@ -1329,12 +1332,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="11" t="s">
         <v>20</v>
       </c>
@@ -1347,12 +1350,12 @@
       <c r="E41" s="13">
         <v>5</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
@@ -1365,12 +1368,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -1383,12 +1386,12 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -1401,52 +1404,52 @@
       <c r="E44" s="13">
         <v>2</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -1461,21 +1464,21 @@
       <c r="E49" s="16">
         <v>0.5</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="38">
         <f>SUM(E49:E58)</f>
         <v>12.5</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="38">
         <f>SUM(G39+F49)</f>
         <v>44.5</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="39">
         <f>SUM($E$6+H39)</f>
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1488,12 +1491,12 @@
       <c r="E50" s="16">
         <v>1</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
@@ -1506,12 +1509,12 @@
       <c r="E51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
@@ -1524,12 +1527,12 @@
       <c r="E52" s="16">
         <v>1</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="14" t="s">
         <v>20</v>
       </c>
@@ -1542,12 +1545,12 @@
       <c r="E53" s="16">
         <v>3</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
@@ -1560,12 +1563,12 @@
       <c r="E54" s="16">
         <v>4</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="14" t="s">
         <v>15</v>
       </c>
@@ -1578,42 +1581,42 @@
       <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="34"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -1628,21 +1631,21 @@
       <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="33">
         <f>SUM(E59:E68)</f>
         <v>10</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="33">
         <f>SUM(G49+F59)</f>
         <v>54.5</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="34">
         <f>SUM($E$6+H49)</f>
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
@@ -1655,12 +1658,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="11" t="s">
         <v>36</v>
       </c>
@@ -1673,12 +1676,12 @@
       <c r="E61" s="13">
         <v>3</v>
       </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1691,12 +1694,12 @@
       <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="11" t="s">
         <v>25</v>
       </c>
@@ -1709,83 +1712,83 @@
       <c r="E63" s="13">
         <v>2</v>
       </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="11"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="11"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="11"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="35">
+      <c r="F69" s="38">
         <f>SUM(E69:E78)</f>
         <v>9</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="38">
         <f>SUM(G59+F69)</f>
         <v>63.5</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="39">
         <f>SUM($E$6+H59)</f>
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="14" t="s">
         <v>26</v>
       </c>
@@ -1798,12 +1801,12 @@
       <c r="E70" s="16">
         <v>3</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="39"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="14" t="s">
         <v>20</v>
       </c>
@@ -1816,12 +1819,12 @@
       <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="14" t="s">
         <v>22</v>
       </c>
@@ -1834,72 +1837,72 @@
       <c r="E72" s="16">
         <v>5</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="39"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="14"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="39"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="39"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="14"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="39"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="39"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -1914,21 +1917,21 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="33">
         <f>SUM(E79:E88)</f>
         <v>8</v>
       </c>
-      <c r="G79" s="32">
+      <c r="G79" s="33">
         <f>SUM(G69+F79)</f>
         <v>71.5</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="34">
         <f>SUM($E$6+H69)</f>
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="11" t="s">
         <v>19</v>
       </c>
@@ -1941,12 +1944,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="11" t="s">
         <v>20</v>
       </c>
@@ -1959,12 +1962,12 @@
       <c r="E81" s="13">
         <v>3</v>
       </c>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="11" t="s">
         <v>25</v>
       </c>
@@ -1977,72 +1980,72 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="11"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="11"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="11"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="11"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="11"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="11"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -2057,21 +2060,21 @@
       <c r="E89" s="16">
         <v>4</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="38">
         <f>SUM(E89:E98)</f>
         <v>9.5</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="38">
         <f>SUM(G79+F89)</f>
         <v>81</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89" s="39">
         <f>SUM($E$6+H79)</f>
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="8" t="s">
         <v>19</v>
       </c>
@@ -2084,12 +2087,12 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="39"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="14" t="s">
         <v>19</v>
       </c>
@@ -2102,12 +2105,12 @@
       <c r="E91" s="16">
         <v>3</v>
       </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="39"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="14" t="s">
         <v>25</v>
       </c>
@@ -2120,72 +2123,72 @@
       <c r="E92" s="16">
         <v>2</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="39"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="39"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="39"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="8"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="8"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="39"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="39"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -2200,21 +2203,21 @@
       <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="33">
         <f>SUM(E99:E108)</f>
         <v>12</v>
       </c>
-      <c r="G99" s="32">
+      <c r="G99" s="33">
         <f>SUM(G89+F99)</f>
         <v>93</v>
       </c>
-      <c r="H99" s="33">
+      <c r="H99" s="34">
         <f>SUM($E$6+H89)</f>
         <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="11" t="s">
         <v>19</v>
       </c>
@@ -2227,12 +2230,12 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="34"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="11" t="s">
         <v>19</v>
       </c>
@@ -2245,12 +2248,12 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2263,12 +2266,12 @@
       <c r="E102" s="13">
         <v>3</v>
       </c>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="34"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="31"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
@@ -2281,62 +2284,62 @@
       <c r="E103" s="13">
         <v>5</v>
       </c>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="31"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="11"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="11"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="11"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="34"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
       <c r="D107" s="11"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="31"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="11"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -2351,21 +2354,21 @@
       <c r="E109" s="16">
         <v>2</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="38">
         <f>SUM(E109:E118)</f>
         <v>15</v>
       </c>
-      <c r="G109" s="35">
+      <c r="G109" s="38">
         <f>SUM(G99+F109)</f>
         <v>108</v>
       </c>
-      <c r="H109" s="36">
+      <c r="H109" s="39">
         <f>SUM($E$6+H99)</f>
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="34"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2378,12 +2381,12 @@
       <c r="E110" s="16">
         <v>3</v>
       </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="36"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="39"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="34"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="14" t="s">
         <v>20</v>
       </c>
@@ -2396,12 +2399,12 @@
       <c r="E111" s="16">
         <v>2</v>
       </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="36"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="39"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="34"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="14" t="s">
         <v>22</v>
       </c>
@@ -2414,12 +2417,12 @@
       <c r="E112" s="16">
         <v>4</v>
       </c>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="36"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="39"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="14" t="s">
         <v>25</v>
       </c>
@@ -2432,856 +2435,880 @@
       <c r="E113" s="16">
         <v>4</v>
       </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="36"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="39"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="34"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="14"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="36"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="39"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="34"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="14"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="36"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="39"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="34"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="36"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="39"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="36"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="39"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="34"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="14"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="36"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="39"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="32">
+      <c r="B119" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="12">
+        <v>42880</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="13">
+        <v>3</v>
+      </c>
+      <c r="F119" s="33">
         <f>SUM(E119:E128)</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="32">
+        <v>9</v>
+      </c>
+      <c r="G119" s="33">
         <f>SUM(G109+F119)</f>
-        <v>108</v>
-      </c>
-      <c r="H119" s="33">
+        <v>117</v>
+      </c>
+      <c r="H119" s="34">
         <f>SUM($E$6+H109)</f>
         <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="31"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="33"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="12">
+        <v>42883</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="13">
+        <v>2</v>
+      </c>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="31"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="33"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="12">
+        <v>42884</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="13">
+        <v>4</v>
+      </c>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="31"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="11"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="31"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="11"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="31"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="11"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="31"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
       <c r="D125" s="11"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="31"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="11"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="31"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="11"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="31"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="11"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="14"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="35">
+      <c r="F129" s="38">
         <f>SUM(E129:E138)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="35">
+      <c r="G129" s="38">
         <f>SUM(G119+F129)</f>
-        <v>108</v>
-      </c>
-      <c r="H129" s="36">
+        <v>117</v>
+      </c>
+      <c r="H129" s="39">
         <f>SUM($E$6+H119)</f>
         <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="34"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="14"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="36"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="39"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="34"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
       <c r="D131" s="14"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="36"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="39"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="34"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
       <c r="D132" s="14"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="36"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="39"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="14"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="36"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="39"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="34"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
       <c r="D134" s="14"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="36"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="39"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="34"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="14"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="36"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="39"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="34"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="14"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="36"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="39"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
       <c r="D137" s="14"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="36"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="39"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="34"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
       <c r="D138" s="14"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="36"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="39"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="11"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="32">
+      <c r="F139" s="33">
         <f>SUM(E139:E148)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="32">
+      <c r="G139" s="33">
         <f>SUM(G129+F139)</f>
-        <v>108</v>
-      </c>
-      <c r="H139" s="33">
+        <v>117</v>
+      </c>
+      <c r="H139" s="34">
         <f>SUM($E$6+H129)</f>
         <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="31"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="11"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="34"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="31"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="11"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="34"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="31"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="11"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="34"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="31"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="11"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="34"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="31"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="11"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="31"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="11"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="34"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="31"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="11"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="34"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="11"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="31"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="11"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="15"/>
       <c r="D149" s="14"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="35">
+      <c r="F149" s="38">
         <f>SUM(E149:E158)</f>
         <v>0</v>
       </c>
-      <c r="G149" s="35">
+      <c r="G149" s="38">
         <f>SUM(G139+F149)</f>
-        <v>108</v>
-      </c>
-      <c r="H149" s="36">
+        <v>117</v>
+      </c>
+      <c r="H149" s="39">
         <f>SUM($E$6+H139)</f>
         <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="34"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="14"/>
       <c r="C150" s="15"/>
       <c r="D150" s="14"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="36"/>
+      <c r="F150" s="38"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="39"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="34"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="14"/>
       <c r="C151" s="15"/>
       <c r="D151" s="14"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="35"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="36"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="39"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="34"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="14"/>
       <c r="C152" s="15"/>
       <c r="D152" s="14"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="35"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="36"/>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="39"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="34"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="14"/>
       <c r="C153" s="15"/>
       <c r="D153" s="14"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="36"/>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="39"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="34"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
       <c r="D154" s="14"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="36"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="39"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="34"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="14"/>
       <c r="C155" s="15"/>
       <c r="D155" s="14"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="35"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="36"/>
+      <c r="F155" s="38"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="39"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="34"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="14"/>
       <c r="C156" s="15"/>
       <c r="D156" s="14"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="35"/>
-      <c r="G156" s="35"/>
-      <c r="H156" s="36"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="39"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="14"/>
       <c r="C157" s="15"/>
       <c r="D157" s="14"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="35"/>
-      <c r="G157" s="35"/>
-      <c r="H157" s="36"/>
+      <c r="F157" s="38"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="39"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="34"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="14"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="36"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="39"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="11"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="32">
+      <c r="F159" s="33">
         <f>SUM(E159:E168)</f>
         <v>0</v>
       </c>
-      <c r="G159" s="32">
+      <c r="G159" s="33">
         <f>SUM(G149+F159)</f>
-        <v>108</v>
-      </c>
-      <c r="H159" s="33">
+        <v>117</v>
+      </c>
+      <c r="H159" s="34">
         <f>SUM($E$6+H149)</f>
         <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="31"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="11"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="34"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="31"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
       <c r="D161" s="11"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="31"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="11"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="31"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
       <c r="D163" s="11"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="31"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="11"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="31"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
       <c r="D165" s="11"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="31"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="11"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="31"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
       <c r="D167" s="11"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="31"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="11"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="34"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="34" t="s">
+      <c r="A169" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="35">
+      <c r="F169" s="38">
         <f>SUM(E169:E178)</f>
         <v>0</v>
       </c>
-      <c r="G169" s="35">
+      <c r="G169" s="38">
         <f>SUM(G159+F169)</f>
-        <v>108</v>
-      </c>
-      <c r="H169" s="36">
+        <v>117</v>
+      </c>
+      <c r="H169" s="39">
         <f>SUM($E$6+H159)</f>
         <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="34"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="36"/>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="39"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="34"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="14"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="35"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="36"/>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="39"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="34"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="14"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="36"/>
+      <c r="F172" s="38"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="39"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="34"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="14"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="36"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="39"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="34"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="14"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="35"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="36"/>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="39"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="34"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="14"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="35"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="36"/>
+      <c r="F175" s="38"/>
+      <c r="G175" s="38"/>
+      <c r="H175" s="39"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="34"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="14"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="35"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="36"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="39"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="34"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="14"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="35"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="36"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="39"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="34"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="14"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="35"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="36"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="39"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="37" t="s">
+      <c r="A179" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="39">
+      <c r="F179" s="42">
         <f>SUM(E179:E188)</f>
         <v>0</v>
       </c>
-      <c r="G179" s="39">
+      <c r="G179" s="42">
         <f>SUM(G169+F179)</f>
-        <v>108</v>
-      </c>
-      <c r="H179" s="41">
+        <v>117</v>
+      </c>
+      <c r="H179" s="44">
         <f>SUM($E$6+H169)</f>
         <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="37"/>
+      <c r="A180" s="40"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="39"/>
-      <c r="G180" s="39"/>
-      <c r="H180" s="41"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="44"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="37"/>
+      <c r="A181" s="40"/>
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="39"/>
-      <c r="G181" s="39"/>
-      <c r="H181" s="41"/>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="44"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="37"/>
+      <c r="A182" s="40"/>
       <c r="B182" s="17"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17"/>
       <c r="E182" s="19"/>
-      <c r="F182" s="39"/>
-      <c r="G182" s="39"/>
-      <c r="H182" s="41"/>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="44"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="37"/>
+      <c r="A183" s="40"/>
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="17"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="39"/>
-      <c r="G183" s="39"/>
-      <c r="H183" s="41"/>
+      <c r="F183" s="42"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="44"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="37"/>
+      <c r="A184" s="40"/>
       <c r="B184" s="17"/>
       <c r="C184" s="18"/>
       <c r="D184" s="17"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="39"/>
-      <c r="G184" s="39"/>
-      <c r="H184" s="41"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="44"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="37"/>
+      <c r="A185" s="40"/>
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="17"/>
       <c r="E185" s="19"/>
-      <c r="F185" s="39"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="41"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="44"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="37"/>
+      <c r="A186" s="40"/>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
       <c r="D186" s="17"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="41"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="44"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="37"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="17"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="39"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="41"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="44"/>
     </row>
     <row r="188" spans="1:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="38"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="20"/>
       <c r="E188" s="22"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="40"/>
-      <c r="H188" s="42"/>
+      <c r="F188" s="43"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="45"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
       <c r="F190" s="3"/>
       <c r="G190" s="28">
         <f>SUM(G179)</f>
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3">
@@ -3290,14 +3317,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="43"/>
-      <c r="C192" s="43"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
       <c r="F192" s="27">
         <f>SUM(G190-H191)</f>
-        <v>-45</v>
+        <v>-36</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
@@ -3305,6 +3332,72 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="82">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="F159:F168"/>
+    <mergeCell ref="G159:G168"/>
+    <mergeCell ref="H159:H168"/>
+    <mergeCell ref="A149:A158"/>
+    <mergeCell ref="F149:F158"/>
+    <mergeCell ref="G149:G158"/>
+    <mergeCell ref="H149:H158"/>
+    <mergeCell ref="A129:A138"/>
+    <mergeCell ref="F129:F138"/>
+    <mergeCell ref="G129:G138"/>
+    <mergeCell ref="H129:H138"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="F179:F188"/>
+    <mergeCell ref="G179:G188"/>
+    <mergeCell ref="H179:H188"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="F169:F178"/>
+    <mergeCell ref="G169:G178"/>
+    <mergeCell ref="H169:H178"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="F139:F148"/>
+    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="H139:H148"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="G109:G118"/>
+    <mergeCell ref="H109:H118"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="F119:F128"/>
+    <mergeCell ref="G119:G128"/>
+    <mergeCell ref="H119:H128"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="F89:F98"/>
+    <mergeCell ref="G89:G98"/>
+    <mergeCell ref="H89:H98"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="F99:F108"/>
+    <mergeCell ref="G99:G108"/>
+    <mergeCell ref="H99:H108"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="G69:G78"/>
+    <mergeCell ref="H69:H78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F79:F88"/>
+    <mergeCell ref="G79:G88"/>
+    <mergeCell ref="H79:H88"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="F49:F58"/>
+    <mergeCell ref="G49:G58"/>
+    <mergeCell ref="H49:H58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F59:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="H59:H68"/>
+    <mergeCell ref="H39:H48"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="G29:G38"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="F29:F38"/>
     <mergeCell ref="A192:C192"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A190:C190"/>
@@ -3321,72 +3414,6 @@
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="F39:F48"/>
     <mergeCell ref="G39:G48"/>
-    <mergeCell ref="H39:H48"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="G29:G38"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="F49:F58"/>
-    <mergeCell ref="G49:G58"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F59:F68"/>
-    <mergeCell ref="G59:G68"/>
-    <mergeCell ref="H59:H68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="F69:F78"/>
-    <mergeCell ref="G69:G78"/>
-    <mergeCell ref="H69:H78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F79:F88"/>
-    <mergeCell ref="G79:G88"/>
-    <mergeCell ref="H79:H88"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="F89:F98"/>
-    <mergeCell ref="G89:G98"/>
-    <mergeCell ref="H89:H98"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="F99:F108"/>
-    <mergeCell ref="G99:G108"/>
-    <mergeCell ref="H99:H108"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="F139:F148"/>
-    <mergeCell ref="G139:G148"/>
-    <mergeCell ref="H139:H148"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="G109:G118"/>
-    <mergeCell ref="H109:H118"/>
-    <mergeCell ref="A119:A128"/>
-    <mergeCell ref="F119:F128"/>
-    <mergeCell ref="G119:G128"/>
-    <mergeCell ref="H119:H128"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="F179:F188"/>
-    <mergeCell ref="G179:G188"/>
-    <mergeCell ref="H179:H188"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="F169:F178"/>
-    <mergeCell ref="G169:G178"/>
-    <mergeCell ref="H169:H178"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A159:A168"/>
-    <mergeCell ref="F159:F168"/>
-    <mergeCell ref="G159:G168"/>
-    <mergeCell ref="H159:H168"/>
-    <mergeCell ref="A149:A158"/>
-    <mergeCell ref="F149:F158"/>
-    <mergeCell ref="G149:G158"/>
-    <mergeCell ref="H149:H158"/>
-    <mergeCell ref="A129:A138"/>
-    <mergeCell ref="F129:F138"/>
-    <mergeCell ref="G129:G138"/>
-    <mergeCell ref="H129:H138"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
+++ b/Meilensteine/MS 3/Zeiterfassung/Zeiterfassung_Alexander.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\SVN\Meilensteine\MS 3\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\Repository\Meilensteine\MS 3\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24197" windowHeight="12094"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -371,14 +371,12 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -389,15 +387,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,10 +414,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -771,63 +771,63 @@
   <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A153" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.15234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.53515625" customWidth="1"/>
-    <col min="5" max="5" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.3" x14ac:dyDescent="0.6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -837,21 +837,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="37">
+      <c r="D6" s="43"/>
+      <c r="E6" s="47">
         <v>9</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="8" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="8" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>6</v>
       </c>
@@ -877,8 +877,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -893,20 +893,20 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="45">
         <f>SUM(E9:E18)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="45">
         <f>SUM(F9)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,92 +919,92 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1019,21 +1019,21 @@
       <c r="E19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="32">
         <f>SUM(E19:E28)</f>
         <v>7</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f>SUM(G9+F19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="33">
         <f>SUM($E$6+H9)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
       <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1046,12 +1046,12 @@
       <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
       <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1064,82 +1064,82 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="11"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="11"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1154,21 +1154,21 @@
       <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="35">
         <f>SUM(E29:E38)</f>
         <v>9</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="35">
         <f>SUM(G19+F29)</f>
         <v>18</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="36">
         <f>SUM($E$6+H19)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
@@ -1181,12 +1181,12 @@
       <c r="E30" s="16">
         <v>2</v>
       </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>25</v>
       </c>
@@ -1199,12 +1199,12 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
@@ -1217,12 +1217,12 @@
       <c r="E32" s="16">
         <v>2</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
       <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
@@ -1235,62 +1235,62 @@
       <c r="E33" s="16">
         <v>3</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="34"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -1305,21 +1305,21 @@
       <c r="E39" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="32">
         <f>SUM(E39:E48)</f>
         <v>14</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <f>SUM(G29+F39)</f>
         <v>32</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <f>SUM($E$6+H29)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
@@ -1332,12 +1332,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
       <c r="B41" s="11" t="s">
         <v>20</v>
       </c>
@@ -1350,12 +1350,12 @@
       <c r="E41" s="13">
         <v>5</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
       <c r="B42" s="11" t="s">
         <v>22</v>
       </c>
@@ -1368,12 +1368,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
       <c r="B43" s="11" t="s">
         <v>25</v>
       </c>
@@ -1386,12 +1386,12 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
       <c r="B44" s="11" t="s">
         <v>26</v>
       </c>
@@ -1404,52 +1404,52 @@
       <c r="E44" s="13">
         <v>2</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="11"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="11"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="11"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -1464,21 +1464,21 @@
       <c r="E49" s="16">
         <v>0.5</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="35">
         <f>SUM(E49:E58)</f>
         <v>12.5</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="35">
         <f>SUM(G39+F49)</f>
         <v>44.5</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="36">
         <f>SUM($E$6+H39)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
       <c r="B50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1491,12 +1491,12 @@
       <c r="E50" s="16">
         <v>1</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
@@ -1509,12 +1509,12 @@
       <c r="E51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
       <c r="B52" s="14" t="s">
         <v>20</v>
       </c>
@@ -1527,12 +1527,12 @@
       <c r="E52" s="16">
         <v>1</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="34"/>
       <c r="B53" s="14" t="s">
         <v>20</v>
       </c>
@@ -1545,12 +1545,12 @@
       <c r="E53" s="16">
         <v>3</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="39"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="34"/>
       <c r="B54" s="14" t="s">
         <v>22</v>
       </c>
@@ -1563,12 +1563,12 @@
       <c r="E54" s="16">
         <v>4</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="39"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="34"/>
       <c r="B55" s="14" t="s">
         <v>15</v>
       </c>
@@ -1581,42 +1581,42 @@
       <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="39"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="34"/>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="34"/>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="39"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="34"/>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="14"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -1631,21 +1631,21 @@
       <c r="E59" s="13">
         <v>2</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="32">
         <f>SUM(E59:E68)</f>
         <v>10</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="32">
         <f>SUM(G49+F59)</f>
         <v>54.5</v>
       </c>
-      <c r="H59" s="34">
+      <c r="H59" s="33">
         <f>SUM($E$6+H49)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
@@ -1658,12 +1658,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
       <c r="B61" s="11" t="s">
         <v>36</v>
       </c>
@@ -1676,12 +1676,12 @@
       <c r="E61" s="13">
         <v>3</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="31"/>
       <c r="B62" s="11" t="s">
         <v>20</v>
       </c>
@@ -1694,12 +1694,12 @@
       <c r="E62" s="13">
         <v>2</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="34"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="31"/>
       <c r="B63" s="11" t="s">
         <v>25</v>
       </c>
@@ -1712,83 +1712,83 @@
       <c r="E63" s="13">
         <v>2</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="11"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="34"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
       <c r="D65" s="11"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="34"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="11"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="34"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="31"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="11"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="34"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="33"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="38">
+      <c r="F69" s="35">
         <f>SUM(E69:E78)</f>
         <v>9</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="35">
         <f>SUM(G59+F69)</f>
         <v>63.5</v>
       </c>
-      <c r="H69" s="39">
+      <c r="H69" s="36">
         <f>SUM($E$6+H59)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="34"/>
       <c r="B70" s="14" t="s">
         <v>26</v>
       </c>
@@ -1801,12 +1801,12 @@
       <c r="E70" s="16">
         <v>3</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="39"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="34"/>
       <c r="B71" s="14" t="s">
         <v>20</v>
       </c>
@@ -1819,12 +1819,12 @@
       <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="39"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="34"/>
       <c r="B72" s="14" t="s">
         <v>22</v>
       </c>
@@ -1837,72 +1837,72 @@
       <c r="E72" s="16">
         <v>5</v>
       </c>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="39"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="34"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
       <c r="D73" s="14"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="39"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="34"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="39"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="31"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="34"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
       <c r="D75" s="14"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="39"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="34"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="14"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="39"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="34"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
       <c r="D77" s="14"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="39"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="34"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
       <c r="D78" s="14"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="31" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -1917,21 +1917,21 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="32">
         <f>SUM(E79:E88)</f>
         <v>8</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="32">
         <f>SUM(G69+F79)</f>
         <v>71.5</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H79" s="33">
         <f>SUM($E$6+H69)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="31"/>
       <c r="B80" s="11" t="s">
         <v>19</v>
       </c>
@@ -1944,12 +1944,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="33"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="31"/>
       <c r="B81" s="11" t="s">
         <v>20</v>
       </c>
@@ -1962,12 +1962,12 @@
       <c r="E81" s="13">
         <v>3</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="34"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="33"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="31"/>
       <c r="B82" s="11" t="s">
         <v>25</v>
       </c>
@@ -1980,72 +1980,72 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="33"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="31"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="11"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="34"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="33"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="31"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="11"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="34"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="31"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="11"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="34"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="31"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="11"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="34"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="33"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="31"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="11"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="31"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="11"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="34"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="33"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -2060,21 +2060,21 @@
       <c r="E89" s="16">
         <v>4</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="35">
         <f>SUM(E89:E98)</f>
         <v>9.5</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="35">
         <f>SUM(G79+F89)</f>
         <v>81</v>
       </c>
-      <c r="H89" s="39">
+      <c r="H89" s="36">
         <f>SUM($E$6+H79)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="34"/>
       <c r="B90" s="8" t="s">
         <v>19</v>
       </c>
@@ -2087,12 +2087,12 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="39"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="34"/>
       <c r="B91" s="14" t="s">
         <v>19</v>
       </c>
@@ -2105,12 +2105,12 @@
       <c r="E91" s="16">
         <v>3</v>
       </c>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="39"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="34"/>
       <c r="B92" s="14" t="s">
         <v>25</v>
       </c>
@@ -2123,72 +2123,72 @@
       <c r="E92" s="16">
         <v>2</v>
       </c>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="39"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="31"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="34"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="39"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="34"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="39"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="34"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
       <c r="D95" s="8"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="34"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
       <c r="D96" s="8"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="39"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="36"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="34"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
       <c r="D97" s="8"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="39"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="31"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="34"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="39"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="32" t="s">
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -2203,21 +2203,21 @@
       <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" s="33">
+      <c r="F99" s="32">
         <f>SUM(E99:E108)</f>
         <v>12</v>
       </c>
-      <c r="G99" s="33">
+      <c r="G99" s="32">
         <f>SUM(G89+F99)</f>
         <v>93</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="33">
         <f>SUM($E$6+H89)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="31"/>
       <c r="B100" s="11" t="s">
         <v>19</v>
       </c>
@@ -2230,12 +2230,12 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="33"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="31"/>
       <c r="B101" s="11" t="s">
         <v>19</v>
       </c>
@@ -2248,12 +2248,12 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="34"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="33"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="31"/>
       <c r="B102" s="11" t="s">
         <v>22</v>
       </c>
@@ -2266,12 +2266,12 @@
       <c r="E102" s="13">
         <v>3</v>
       </c>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="34"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="33"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="31"/>
       <c r="B103" s="11" t="s">
         <v>25</v>
       </c>
@@ -2284,62 +2284,62 @@
       <c r="E103" s="13">
         <v>5</v>
       </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="34"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="33"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="31"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="11"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="31"/>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="11"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="34"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="31"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="11"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="34"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="33"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="31"/>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
       <c r="D107" s="11"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="34"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="31"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="11"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="34"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="33"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B109" s="14" t="s">
@@ -2354,21 +2354,21 @@
       <c r="E109" s="16">
         <v>2</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="35">
         <f>SUM(E109:E118)</f>
-        <v>15</v>
-      </c>
-      <c r="G109" s="38">
+        <v>16</v>
+      </c>
+      <c r="G109" s="35">
         <f>SUM(G99+F109)</f>
-        <v>108</v>
-      </c>
-      <c r="H109" s="39">
+        <v>109</v>
+      </c>
+      <c r="H109" s="36">
         <f>SUM($E$6+H99)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="34"/>
       <c r="B110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2381,12 +2381,12 @@
       <c r="E110" s="16">
         <v>3</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="39"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="36"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="34"/>
       <c r="B111" s="14" t="s">
         <v>20</v>
       </c>
@@ -2399,12 +2399,12 @@
       <c r="E111" s="16">
         <v>2</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="39"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="36"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="34"/>
       <c r="B112" s="14" t="s">
         <v>22</v>
       </c>
@@ -2417,12 +2417,12 @@
       <c r="E112" s="16">
         <v>4</v>
       </c>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="39"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="36"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="34"/>
       <c r="B113" s="14" t="s">
         <v>25</v>
       </c>
@@ -2435,62 +2435,70 @@
       <c r="E113" s="16">
         <v>4</v>
       </c>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="39"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="31"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="39"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="31"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="36"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="34"/>
+      <c r="B114" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="15">
+        <v>42871</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="16">
+        <v>1</v>
+      </c>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="36"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="34"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="14"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="39"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
+      <c r="F115" s="35"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="36"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="34"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="39"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="31"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="36"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="34"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="39"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="31"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="36"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="34"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="14"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="39"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="32" t="s">
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="36"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -2505,21 +2513,21 @@
       <c r="E119" s="13">
         <v>3</v>
       </c>
-      <c r="F119" s="33">
+      <c r="F119" s="32">
         <f>SUM(E119:E128)</f>
         <v>9</v>
       </c>
-      <c r="G119" s="33">
+      <c r="G119" s="32">
         <f>SUM(G109+F119)</f>
-        <v>117</v>
-      </c>
-      <c r="H119" s="34">
+        <v>118</v>
+      </c>
+      <c r="H119" s="33">
         <f>SUM($E$6+H109)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="31"/>
       <c r="B120" s="11" t="s">
         <v>25</v>
       </c>
@@ -2532,12 +2540,12 @@
       <c r="E120" s="13">
         <v>2</v>
       </c>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="34"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="33"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="31"/>
       <c r="B121" s="11" t="s">
         <v>15</v>
       </c>
@@ -2550,765 +2558,765 @@
       <c r="E121" s="13">
         <v>4</v>
       </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="34"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="33"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="31"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="11"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="34"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="33"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="31"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="11"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="34"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="33"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="31"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="11"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="34"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="33"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="31"/>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
       <c r="D125" s="11"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="34"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="33"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="31"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="11"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="34"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="33"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="31"/>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
       <c r="D127" s="11"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="34"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="33"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="31"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="11"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="34"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="31" t="s">
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="33"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="14"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="38">
+      <c r="F129" s="35">
         <f>SUM(E129:E138)</f>
         <v>0</v>
       </c>
-      <c r="G129" s="38">
+      <c r="G129" s="35">
         <f>SUM(G119+F129)</f>
-        <v>117</v>
-      </c>
-      <c r="H129" s="39">
+        <v>118</v>
+      </c>
+      <c r="H129" s="36">
         <f>SUM($E$6+H119)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="31"/>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="34"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="14"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="39"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="31"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="36"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="34"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
       <c r="D131" s="14"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="39"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="31"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="36"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="34"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
       <c r="D132" s="14"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="39"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="31"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="36"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="34"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="14"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="39"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="31"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="36"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="34"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
       <c r="D134" s="14"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="39"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="31"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="36"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="34"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="14"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="39"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="31"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="36"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="34"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="14"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="39"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="31"/>
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="36"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="34"/>
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
       <c r="D137" s="14"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="39"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="31"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="36"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="34"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15"/>
       <c r="D138" s="14"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="39"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="32" t="s">
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="36"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
       <c r="D139" s="11"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="33">
+      <c r="F139" s="32">
         <f>SUM(E139:E148)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="33">
+      <c r="G139" s="32">
         <f>SUM(G129+F139)</f>
-        <v>117</v>
-      </c>
-      <c r="H139" s="34">
+        <v>118</v>
+      </c>
+      <c r="H139" s="33">
         <f>SUM($E$6+H129)</f>
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="31"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="11"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="34"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="33"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="31"/>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
       <c r="D141" s="11"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="34"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="31"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="11"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="34"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="33"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="31"/>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
       <c r="D143" s="11"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="34"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="33"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="31"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="11"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="34"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="33"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="31"/>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
       <c r="D145" s="11"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="34"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="33"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="31"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="11"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="34"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="33"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="31"/>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
       <c r="D147" s="11"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="34"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="33"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="31"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="11"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="31" t="s">
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="33"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="15"/>
       <c r="D149" s="14"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="38">
+      <c r="F149" s="35">
         <f>SUM(E149:E158)</f>
         <v>0</v>
       </c>
-      <c r="G149" s="38">
+      <c r="G149" s="35">
         <f>SUM(G139+F149)</f>
-        <v>117</v>
-      </c>
-      <c r="H149" s="39">
+        <v>118</v>
+      </c>
+      <c r="H149" s="36">
         <f>SUM($E$6+H139)</f>
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="31"/>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="34"/>
       <c r="B150" s="14"/>
       <c r="C150" s="15"/>
       <c r="D150" s="14"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="38"/>
-      <c r="G150" s="38"/>
-      <c r="H150" s="39"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="31"/>
+      <c r="F150" s="35"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="36"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="34"/>
       <c r="B151" s="14"/>
       <c r="C151" s="15"/>
       <c r="D151" s="14"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="39"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="31"/>
+      <c r="F151" s="35"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="36"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="34"/>
       <c r="B152" s="14"/>
       <c r="C152" s="15"/>
       <c r="D152" s="14"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
-      <c r="H152" s="39"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="31"/>
+      <c r="F152" s="35"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="36"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="34"/>
       <c r="B153" s="14"/>
       <c r="C153" s="15"/>
       <c r="D153" s="14"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="39"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="31"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="36"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="34"/>
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
       <c r="D154" s="14"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="39"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="31"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="36"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="34"/>
       <c r="B155" s="14"/>
       <c r="C155" s="15"/>
       <c r="D155" s="14"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="39"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="31"/>
+      <c r="F155" s="35"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="36"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="34"/>
       <c r="B156" s="14"/>
       <c r="C156" s="15"/>
       <c r="D156" s="14"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="39"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="31"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="36"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="34"/>
       <c r="B157" s="14"/>
       <c r="C157" s="15"/>
       <c r="D157" s="14"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="39"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="31"/>
+      <c r="F157" s="35"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="36"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="34"/>
       <c r="B158" s="14"/>
       <c r="C158" s="15"/>
       <c r="D158" s="14"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="39"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="32" t="s">
+      <c r="F158" s="35"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="36"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
       <c r="D159" s="11"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="33">
+      <c r="F159" s="32">
         <f>SUM(E159:E168)</f>
         <v>0</v>
       </c>
-      <c r="G159" s="33">
+      <c r="G159" s="32">
         <f>SUM(G149+F159)</f>
-        <v>117</v>
-      </c>
-      <c r="H159" s="34">
+        <v>118</v>
+      </c>
+      <c r="H159" s="33">
         <f>SUM($E$6+H149)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="32"/>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="31"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="11"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="34"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="33"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="31"/>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
       <c r="D161" s="11"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="34"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="33"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="31"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="11"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="34"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="33"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="31"/>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
       <c r="D163" s="11"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="34"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="33"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="31"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="11"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="34"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="33"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="31"/>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
       <c r="D165" s="11"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="34"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="33"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="31"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="11"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="34"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="33"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="31"/>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
       <c r="D167" s="11"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="34"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="33"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="31"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="11"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="34"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="31" t="s">
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="33"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B169" s="14"/>
       <c r="C169" s="15"/>
       <c r="D169" s="14"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="38">
+      <c r="F169" s="35">
         <f>SUM(E169:E178)</f>
         <v>0</v>
       </c>
-      <c r="G169" s="38">
+      <c r="G169" s="35">
         <f>SUM(G159+F169)</f>
-        <v>117</v>
-      </c>
-      <c r="H169" s="39">
+        <v>118</v>
+      </c>
+      <c r="H169" s="36">
         <f>SUM($E$6+H159)</f>
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="31"/>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="34"/>
       <c r="B170" s="14"/>
       <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="38"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="39"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="31"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="36"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="34"/>
       <c r="B171" s="14"/>
       <c r="C171" s="15"/>
       <c r="D171" s="14"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="38"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="39"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="31"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="36"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="34"/>
       <c r="B172" s="14"/>
       <c r="C172" s="15"/>
       <c r="D172" s="14"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="38"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="39"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="31"/>
+      <c r="F172" s="35"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="36"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="34"/>
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="14"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="39"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="31"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="36"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="34"/>
       <c r="B174" s="14"/>
       <c r="C174" s="15"/>
       <c r="D174" s="14"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="38"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="39"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="31"/>
+      <c r="F174" s="35"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="36"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="34"/>
       <c r="B175" s="14"/>
       <c r="C175" s="15"/>
       <c r="D175" s="14"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="39"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="31"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="36"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="34"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
       <c r="D176" s="14"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="39"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="31"/>
+      <c r="F176" s="35"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="36"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="34"/>
       <c r="B177" s="14"/>
       <c r="C177" s="15"/>
       <c r="D177" s="14"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="39"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="31"/>
+      <c r="F177" s="35"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="36"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="34"/>
       <c r="B178" s="14"/>
       <c r="C178" s="15"/>
       <c r="D178" s="14"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="38"/>
-      <c r="H178" s="39"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="40" t="s">
+      <c r="F178" s="35"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="36"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="17"/>
       <c r="E179" s="19"/>
-      <c r="F179" s="42">
+      <c r="F179" s="39">
         <f>SUM(E179:E188)</f>
         <v>0</v>
       </c>
-      <c r="G179" s="42">
+      <c r="G179" s="39">
         <f>SUM(G169+F179)</f>
-        <v>117</v>
-      </c>
-      <c r="H179" s="44">
+        <v>118</v>
+      </c>
+      <c r="H179" s="41">
         <f>SUM($E$6+H169)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="37"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
       <c r="D180" s="17"/>
       <c r="E180" s="19"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
-      <c r="H180" s="44"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="40"/>
+      <c r="F180" s="39"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="41"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="37"/>
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="17"/>
       <c r="E181" s="19"/>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
-      <c r="H181" s="44"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
+      <c r="F181" s="39"/>
+      <c r="G181" s="39"/>
+      <c r="H181" s="41"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="37"/>
       <c r="B182" s="17"/>
       <c r="C182" s="18"/>
       <c r="D182" s="17"/>
       <c r="E182" s="19"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="44"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="40"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="39"/>
+      <c r="H182" s="41"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="37"/>
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="17"/>
       <c r="E183" s="19"/>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
-      <c r="H183" s="44"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="40"/>
+      <c r="F183" s="39"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="41"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="37"/>
       <c r="B184" s="17"/>
       <c r="C184" s="18"/>
       <c r="D184" s="17"/>
       <c r="E184" s="19"/>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
-      <c r="H184" s="44"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="40"/>
+      <c r="F184" s="39"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="41"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="37"/>
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="17"/>
       <c r="E185" s="19"/>
-      <c r="F185" s="42"/>
-      <c r="G185" s="42"/>
-      <c r="H185" s="44"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="40"/>
+      <c r="F185" s="39"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="41"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="37"/>
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
       <c r="D186" s="17"/>
       <c r="E186" s="19"/>
-      <c r="F186" s="42"/>
-      <c r="G186" s="42"/>
-      <c r="H186" s="44"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="40"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="41"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="37"/>
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="17"/>
       <c r="E187" s="19"/>
-      <c r="F187" s="42"/>
-      <c r="G187" s="42"/>
-      <c r="H187" s="44"/>
-    </row>
-    <row r="188" spans="1:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="41"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="41"/>
+    </row>
+    <row r="188" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="38"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="20"/>
       <c r="E188" s="22"/>
-      <c r="F188" s="43"/>
-      <c r="G188" s="43"/>
-      <c r="H188" s="45"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="29" t="s">
+      <c r="F188" s="40"/>
+      <c r="G188" s="40"/>
+      <c r="H188" s="42"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
       <c r="F190" s="3"/>
       <c r="G190" s="28">
         <f>SUM(G179)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="29" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3">
@@ -3316,15 +3324,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="29" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
       <c r="F192" s="27">
         <f>SUM(G190-H191)</f>
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="1"/>
@@ -3332,6 +3340,72 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="82">
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="H19:H28"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="F39:F48"/>
+    <mergeCell ref="G39:G48"/>
+    <mergeCell ref="H39:H48"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="G29:G38"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="F49:F58"/>
+    <mergeCell ref="G49:G58"/>
+    <mergeCell ref="H49:H58"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F59:F68"/>
+    <mergeCell ref="G59:G68"/>
+    <mergeCell ref="H59:H68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="F69:F78"/>
+    <mergeCell ref="G69:G78"/>
+    <mergeCell ref="H69:H78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="F79:F88"/>
+    <mergeCell ref="G79:G88"/>
+    <mergeCell ref="H79:H88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="F89:F98"/>
+    <mergeCell ref="G89:G98"/>
+    <mergeCell ref="H89:H98"/>
+    <mergeCell ref="A99:A108"/>
+    <mergeCell ref="F99:F108"/>
+    <mergeCell ref="G99:G108"/>
+    <mergeCell ref="H99:H108"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="F139:F148"/>
+    <mergeCell ref="G139:G148"/>
+    <mergeCell ref="H139:H148"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="G109:G118"/>
+    <mergeCell ref="H109:H118"/>
+    <mergeCell ref="A119:A128"/>
+    <mergeCell ref="F119:F128"/>
+    <mergeCell ref="G119:G128"/>
+    <mergeCell ref="H119:H128"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="F179:F188"/>
+    <mergeCell ref="G179:G188"/>
+    <mergeCell ref="H179:H188"/>
+    <mergeCell ref="A169:A178"/>
+    <mergeCell ref="F169:F178"/>
+    <mergeCell ref="G169:G178"/>
+    <mergeCell ref="H169:H178"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:H3"/>
@@ -3348,72 +3422,6 @@
     <mergeCell ref="F129:F138"/>
     <mergeCell ref="G129:G138"/>
     <mergeCell ref="H129:H138"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="F179:F188"/>
-    <mergeCell ref="G179:G188"/>
-    <mergeCell ref="H179:H188"/>
-    <mergeCell ref="A169:A178"/>
-    <mergeCell ref="F169:F178"/>
-    <mergeCell ref="G169:G178"/>
-    <mergeCell ref="H169:H178"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="F139:F148"/>
-    <mergeCell ref="G139:G148"/>
-    <mergeCell ref="H139:H148"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="G109:G118"/>
-    <mergeCell ref="H109:H118"/>
-    <mergeCell ref="A119:A128"/>
-    <mergeCell ref="F119:F128"/>
-    <mergeCell ref="G119:G128"/>
-    <mergeCell ref="H119:H128"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="F89:F98"/>
-    <mergeCell ref="G89:G98"/>
-    <mergeCell ref="H89:H98"/>
-    <mergeCell ref="A99:A108"/>
-    <mergeCell ref="F99:F108"/>
-    <mergeCell ref="G99:G108"/>
-    <mergeCell ref="H99:H108"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="F69:F78"/>
-    <mergeCell ref="G69:G78"/>
-    <mergeCell ref="H69:H78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="F79:F88"/>
-    <mergeCell ref="G79:G88"/>
-    <mergeCell ref="H79:H88"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="F49:F58"/>
-    <mergeCell ref="G49:G58"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F59:F68"/>
-    <mergeCell ref="G59:G68"/>
-    <mergeCell ref="H59:H68"/>
-    <mergeCell ref="H39:H48"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="G29:G38"/>
-    <mergeCell ref="H29:H38"/>
-    <mergeCell ref="F29:F38"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="H19:H28"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="H9:H18"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="F39:F48"/>
-    <mergeCell ref="G39:G48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="1.3779527559055118" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3431,7 +3439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -3445,7 +3453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
